--- a/evaluation/evaluation_results.xlsx
+++ b/evaluation/evaluation_results.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9783236994219653</v>
+        <v>0.7596339113680154</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9790086499094979</v>
+        <v>0.847297768612078</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9783236994219653</v>
+        <v>0.7596339113680154</v>
       </c>
     </row>
     <row r="5">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9783381279251664</v>
+        <v>0.7549191201777731</v>
       </c>
     </row>
   </sheetData>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9223300970873787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9900990099009901</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9950248756218906</v>
+        <v>0.9313725490196079</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9932885906040269</v>
+        <v>0.8690476190476191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9932885906040269</v>
+        <v>0.9798657718120806</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9932885906040269</v>
+        <v>0.9211356466876972</v>
       </c>
       <c r="E3" t="n">
         <v>149</v>
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9900990099009901</v>
+        <v>0.7518796992481203</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9950248756218906</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C5" t="n">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9375</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.967741935483871</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9858490566037735</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9766355140186916</v>
+        <v>0.485981308411215</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9812206572769953</v>
+        <v>0.6520376175548589</v>
       </c>
       <c r="E7" t="n">
         <v>214</v>
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9587628865979382</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.93</v>
+        <v>0.06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9441624365482234</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.8019323671497585</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8645833333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.946236559139785</v>
+        <v>0.8320802005012531</v>
       </c>
       <c r="E9" t="n">
         <v>192</v>
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8878504672897196</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9895833333333334</v>
+        <v>0.90625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9359605911330049</v>
+        <v>0.725</v>
       </c>
       <c r="E10" t="n">
         <v>96</v>
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9672131147540983</v>
+        <v>0.5342019543973942</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9943820224719101</v>
+        <v>0.9213483146067416</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9806094182825484</v>
+        <v>0.6762886597938145</v>
       </c>
       <c r="E11" t="n">
         <v>178</v>
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9940119760479041</v>
+        <v>0.8675496688741722</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.7797619047619048</v>
       </c>
       <c r="D12" t="n">
-        <v>0.991044776119403</v>
+        <v>0.8213166144200627</v>
       </c>
       <c r="E12" t="n">
         <v>168</v>
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8429752066115702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9929577464788732</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9657534246575342</v>
+        <v>0.7756653992395437</v>
       </c>
       <c r="E13" t="n">
         <v>142</v>
@@ -768,13 +768,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.996875</v>
+        <v>0.9949748743718593</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9906832298136646</v>
+        <v>0.6149068322981367</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9937694704049844</v>
+        <v>0.7600767754318618</v>
       </c>
       <c r="E14" t="n">
         <v>322</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.2303030303030303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.972972972972973</v>
+        <v>0.374384236453202</v>
       </c>
       <c r="E15" t="n">
         <v>38</v>
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9937888198757764</v>
+        <v>0.9017341040462428</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9968847352024922</v>
+        <v>0.9369369369369369</v>
       </c>
       <c r="E16" t="n">
         <v>160</v>
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1181,46 +1181,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1233,16 +1233,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K8" t="n">
+        <v>44</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1303,31 +1303,31 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1358,25 +1358,25 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1471,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1517,16 +1517,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1569,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>319</v>
+        <v>198</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/evaluation_results.xlsx
+++ b/evaluation/evaluation_results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Class Metrics" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Confusion Matrix" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Class Metrics" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Confusion Matrix" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7596339113680154</v>
+        <v>0.9961464354527938</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.847297768612078</v>
+        <v>0.9961679096987319</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7596339113680154</v>
+        <v>0.9961464354527938</v>
       </c>
     </row>
     <row r="5">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7549191201777731</v>
+        <v>0.9961458503010788</v>
       </c>
     </row>
   </sheetData>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9223300970873787</v>
+        <v>0.9901960784313726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9405940594059405</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9313725490196079</v>
+        <v>0.9950738916256158</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8690476190476191</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9798657718120806</v>
+        <v>0.9932885906040269</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9211356466876972</v>
+        <v>0.9966329966329966</v>
       </c>
       <c r="E3" t="n">
         <v>149</v>
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7518796992481203</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8583690987124464</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9047619047619048</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6153846153846154</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9904761904761905</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.485981308411215</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6520376175548589</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>214</v>
@@ -657,10 +657,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1132075471698113</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8019323671497585</v>
+        <v>0.9896373056994818</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8645833333333334</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8320802005012531</v>
+        <v>0.9922077922077922</v>
       </c>
       <c r="E9" t="n">
         <v>192</v>
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6041666666666666</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.90625</v>
+        <v>0.9895833333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.725</v>
+        <v>0.9947643979057592</v>
       </c>
       <c r="E10" t="n">
         <v>96</v>
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5342019543973942</v>
+        <v>0.994413407821229</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9213483146067416</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6762886597938145</v>
+        <v>0.9971988795518207</v>
       </c>
       <c r="E11" t="n">
         <v>178</v>
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8675496688741722</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7797619047619048</v>
+        <v>0.9940476190476191</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8213166144200627</v>
+        <v>0.9910979228486647</v>
       </c>
       <c r="E12" t="n">
         <v>168</v>
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8429752066115702</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7183098591549296</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7756653992395437</v>
+        <v>0.9964912280701754</v>
       </c>
       <c r="E13" t="n">
         <v>142</v>
@@ -768,13 +768,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9949748743718593</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6149068322981367</v>
+        <v>0.9968944099378882</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7600767754318618</v>
+        <v>0.9984447900466563</v>
       </c>
       <c r="E14" t="n">
         <v>322</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2303030303030303</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.374384236453202</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>38</v>
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9017341040462428</v>
+        <v>0.99375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.975</v>
+        <v>0.99375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9369369369369369</v>
+        <v>0.99375</v>
       </c>
       <c r="E16" t="n">
         <v>160</v>
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>76</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1181,46 +1181,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1233,16 +1233,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1358,25 +1358,25 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1465,25 +1465,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1517,16 +1517,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1569,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>198</v>
+        <v>321</v>
       </c>
       <c r="O14" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/evaluation_results.xlsx
+++ b/evaluation/evaluation_results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Class Metrics" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Confusion Matrix" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Class Metrics" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Confusion Matrix" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9961464354527938</v>
+        <v>0.9669908157752566</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9961679096987319</v>
+        <v>0.9792247048328954</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9961464354527938</v>
+        <v>0.9669908157752566</v>
       </c>
     </row>
     <row r="5">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9961458503010788</v>
+        <v>0.9649241176291927</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,102 +536,102 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pepper__bell___Bacterial_spot</t>
+          <t>Apple___Apple_scab</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9901960784313726</v>
+        <v>0.996039603960396</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.998015873015873</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9950738916256158</v>
+        <v>0.9970267591674926</v>
       </c>
       <c r="E2" t="n">
-        <v>101</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pepper__bell___healthy</t>
+          <t>Apple___Black_rot</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9932885906040269</v>
+        <v>0.993963782696177</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9966329966329966</v>
+        <v>0.9969727547931383</v>
       </c>
       <c r="E3" t="n">
-        <v>149</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Potato___Early_blight</t>
+          <t>Apple___Cedar_apple_rust</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9977324263038548</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9988649262202043</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Potato___Late_blight</t>
+          <t>Apple___healthy</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Potato___healthy</t>
+          <t>Blueberry___healthy</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9848156182212582</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9923497267759562</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tomato_Bacterial_spot</t>
+          <t>Cherry_(including_sour)___Powdery_mildew</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -644,178 +644,653 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>214</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tomato_Early_blight</t>
+          <t>Cherry_(including_sour)___healthy</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9956236323851203</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9967141292442497</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tomato_Late_blight</t>
+          <t>Corn_(maize)___Cercospora_leaf_spot Gray_leaf_spot</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9896373056994818</v>
+        <v>0.9617224880382775</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9947916666666666</v>
+        <v>0.9804878048780488</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9922077922077922</v>
+        <v>0.9710144927536232</v>
       </c>
       <c r="E9" t="n">
-        <v>192</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tomato_Leaf_Mold</t>
+          <t>Corn_(maize)___Common_rust_</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9895833333333334</v>
+        <v>0.9916142557651991</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9947643979057592</v>
+        <v>0.9957894736842106</v>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tomato_Septoria_leaf_spot</t>
+          <t>Corn_(maize)___Northern_Leaf_Blight</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.994413407821229</v>
+        <v>0.9767932489451476</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.9706498951781971</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9971988795518207</v>
+        <v>0.9737118822292324</v>
       </c>
       <c r="E11" t="n">
-        <v>178</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tomato_Spider_mites_Two_spotted_spider_mite</t>
+          <t>Corn_(maize)___healthy</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9881656804733728</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9940476190476191</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9910979228486647</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>168</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tomato__Target_Spot</t>
+          <t>Grape___Black_rot</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.993006993006993</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.9936440677966102</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9964912280701754</v>
+        <v>0.9968119022316685</v>
       </c>
       <c r="E13" t="n">
-        <v>142</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tomato__Tomato_YellowLeaf__Curl_Virus</t>
+          <t>Grape___Esca_(Black_Measles)</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0.995850622406639</v>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.9968944099378882</v>
-      </c>
       <c r="D14" t="n">
-        <v>0.9984447900466563</v>
+        <v>0.997920997920998</v>
       </c>
       <c r="E14" t="n">
-        <v>322</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tomato__Tomato_mosaic_virus</t>
+          <t>Grape___Leaf_blight_(Isariopsis_Leaf_Spot)</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.9976744186046511</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.9988358556461001</v>
       </c>
       <c r="E15" t="n">
-        <v>38</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tomato_healthy</t>
+          <t>Grape___healthy</t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Orange___Haunglongbing_(Citrus_greening)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Peach___Bacterial_spot</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9934640522875817</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9967213114754099</v>
+      </c>
+      <c r="E18" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Peach___healthy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9953917050691244</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9976905311778291</v>
+      </c>
+      <c r="E19" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pepper,_bell___Bacterial_spot</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8265682656826568</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9372384937238494</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8784313725490196</v>
+      </c>
+      <c r="E20" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pepper,_bell___healthy</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9734513274336283</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2213279678068411</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.360655737704918</v>
+      </c>
+      <c r="E21" t="n">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pepper__bell___Bacterial_spot</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.06930693069306931</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1014492753623188</v>
+      </c>
+      <c r="E22" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pepper__bell___healthy</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2722117202268431</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9664429530201343</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4247787610619469</v>
+      </c>
+      <c r="E23" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Potato___Early_blight</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9937106918238994</v>
+      </c>
+      <c r="E24" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Potato___Late_blight</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9929203539823008</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9964476021314387</v>
+      </c>
+      <c r="E25" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Potato___healthy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9914893617021276</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9957264957264957</v>
+      </c>
+      <c r="E26" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Raspberry___healthy</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Soybean___healthy</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9940944881889764</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9970384995064165</v>
+      </c>
+      <c r="E28" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Squash___Powdery_mildew</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Strawberry___Leaf_scorch</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9966329966329966</v>
+      </c>
+      <c r="E30" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Strawberry___healthy</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tomato___Bacterial_spot</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9932318104906938</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9816053511705686</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9873843566021867</v>
+      </c>
+      <c r="E32" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tomato___Early_blight</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9675456389452333</v>
+      </c>
+      <c r="C33" t="n">
         <v>0.99375</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.99375</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.99375</v>
-      </c>
-      <c r="E16" t="n">
-        <v>160</v>
+      <c r="D33" t="n">
+        <v>0.9804727646454265</v>
+      </c>
+      <c r="E33" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tomato___Late_blight</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9804347826086957</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9740820734341252</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9772481040086674</v>
+      </c>
+      <c r="E34" t="n">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tomato___Leaf_Mold</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9915611814345991</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9957627118644068</v>
+      </c>
+      <c r="E35" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tomato___Septoria_leaf_spot</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9931662870159453</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9965714285714286</v>
+      </c>
+      <c r="E36" t="n">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tomato___Spider_mites Two-spotted_spider_mite</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9954128440366973</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9977011494252873</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9965556831228473</v>
+      </c>
+      <c r="E37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tomato___Target_Spot</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9737417943107221</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9866962305986696</v>
+      </c>
+      <c r="E38" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tomato___Tomato_Yellow_Leaf_Curl_Virus</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9913473423980222</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9987546699875467</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9950372208436724</v>
+      </c>
+      <c r="E39" t="n">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tomato___Tomato_mosaic_virus</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.997920997920998</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9989594172736732</v>
+      </c>
+      <c r="E40" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tomato___healthy</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9896907216494846</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.997920997920998</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9937888198757764</v>
+      </c>
+      <c r="E41" t="n">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +1304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,88 +1315,213 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Apple___Apple_scab</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Apple___Black_rot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Apple___Cedar_apple_rust</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Apple___healthy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Blueberry___healthy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cherry_(including_sour)___Powdery_mildew</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cherry_(including_sour)___healthy</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Corn_(maize)___Cercospora_leaf_spot Gray_leaf_spot</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Corn_(maize)___Common_rust_</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Corn_(maize)___Northern_Leaf_Blight</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Corn_(maize)___healthy</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Grape___Black_rot</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Grape___Esca_(Black_Measles)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Grape___Leaf_blight_(Isariopsis_Leaf_Spot)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Grape___healthy</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Orange___Haunglongbing_(Citrus_greening)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Peach___Bacterial_spot</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Peach___healthy</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Pepper,_bell___Bacterial_spot</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Pepper,_bell___healthy</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Pepper__bell___Bacterial_spot</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Pepper__bell___healthy</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Potato___Early_blight</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Potato___Late_blight</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Potato___healthy</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Tomato_Bacterial_spot</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Tomato_Early_blight</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Tomato_Late_blight</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Tomato_Leaf_Mold</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Tomato_Septoria_leaf_spot</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Tomato_Spider_mites_Two_spotted_spider_mite</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tomato__Target_Spot</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Tomato__Tomato_YellowLeaf__Curl_Virus</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Tomato__Tomato_mosaic_virus</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Tomato_healthy</t>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Raspberry___healthy</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Soybean___healthy</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Squash___Powdery_mildew</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Strawberry___Leaf_scorch</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Strawberry___healthy</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Bacterial_spot</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Early_blight</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Late_blight</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Leaf_Mold</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Septoria_leaf_spot</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Spider_mites Two-spotted_spider_mite</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Target_Spot</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Tomato_Yellow_Leaf_Curl_Virus</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Tomato_mosaic_virus</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___healthy</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Pepper__bell___Bacterial_spot</t>
+          <t>Apple___Apple_scab</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101</v>
+        <v>503</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -933,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -963,24 +1563,99 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Pepper__bell___healthy</t>
+          <t>Apple___Black_rot</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>494</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>148</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
@@ -1015,13 +1690,88 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Potato___Early_blight</t>
+          <t>Apple___Cedar_apple_rust</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1031,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1067,13 +1817,88 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Potato___Late_blight</t>
+          <t>Apple___healthy</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1086,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>98</v>
+        <v>502</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1098,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1119,13 +1944,88 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Potato___healthy</t>
+          <t>Blueberry___healthy</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1141,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>454</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1171,13 +2071,88 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Tomato_Bacterial_spot</t>
+          <t>Cherry_(including_sour)___Powdery_mildew</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1196,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>214</v>
+        <v>421</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1223,13 +2198,88 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Tomato_Early_blight</t>
+          <t>Cherry_(including_sour)___healthy</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1251,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>455</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1275,13 +2325,88 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Tomato_Late_blight</t>
+          <t>Corn_(maize)___Cercospora_leaf_spot Gray_leaf_spot</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1306,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>191</v>
+        <v>402</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1327,13 +2452,88 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Tomato_Leaf_Mold</t>
+          <t>Corn_(maize)___Common_rust_</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1358,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>95</v>
+        <v>473</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1379,13 +2579,88 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Tomato_Septoria_leaf_spot</t>
+          <t>Corn_(maize)___Northern_Leaf_Blight</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1410,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>178</v>
+        <v>463</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1431,13 +2706,88 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Tomato_Spider_mites_Two_spotted_spider_mite</t>
+          <t>Corn_(maize)___healthy</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1471,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1483,13 +2833,88 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Tomato__Target_Spot</t>
+          <t>Grape___Black_rot</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1526,22 +2951,97 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>142</v>
+        <v>469</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Tomato__Tomato_YellowLeaf__Curl_Virus</t>
+          <t>Grape___Esca_(Black_Measles)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1575,25 +3075,100 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>321</v>
+        <v>480</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Tomato__Tomato_mosaic_virus</t>
+          <t>Grape___Leaf_blight_(Isariopsis_Leaf_Spot)</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1636,16 +3211,91 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Tomato_healthy</t>
+          <t>Grape___healthy</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1679,19 +3329,3269 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Orange___Haunglongbing_(Citrus_greening)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>503</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Peach___Bacterial_spot</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>456</v>
+      </c>
+      <c r="S18" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>159</v>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Peach___healthy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>432</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Pepper,_bell___Bacterial_spot</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>448</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>30</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Pepper,_bell___healthy</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>110</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>385</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Pepper__bell___Bacterial_spot</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>94</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>7</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Pepper__bell___healthy</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>144</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Potato___Early_blight</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>553</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Potato___Late_blight</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>561</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Potato___healthy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>466</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Raspberry___healthy</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>445</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Soybean___healthy</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>505</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Squash___Powdery_mildew</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>434</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Strawberry___Leaf_scorch</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>444</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Strawberry___healthy</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>456</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Bacterial_spot</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>587</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Early_blight</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>477</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Late_blight</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>451</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Leaf_Mold</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>470</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Septoria_leaf_spot</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>436</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Spider_mites Two-spotted_spider_mite</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>434</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Target_Spot</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>445</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Tomato_Yellow_Leaf_Curl_Virus</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>802</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___Tomato_mosaic_virus</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>480</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Tomato___healthy</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
